--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U242"/>
+  <dimension ref="A1:U245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView tabSelected="1" topLeftCell="B233" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18793,21 +18793,21 @@
         <v>1.3122293529372983E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="7">
         <v>45646</v>
       </c>
       <c r="B242">
-        <v>96625.14</v>
+        <v>97755.96</v>
       </c>
       <c r="C242">
-        <v>1205</v>
+        <v>1175</v>
       </c>
       <c r="D242">
-        <v>2419894</v>
+        <v>2467562</v>
       </c>
       <c r="E242">
-        <v>74.17</v>
+        <v>73.98</v>
       </c>
       <c r="F242">
         <v>212.37156917420506</v>
@@ -18818,56 +18818,211 @@
       </c>
       <c r="H242" s="8">
         <f t="shared" si="202"/>
-        <v>45498.152307166842</v>
+        <v>46030.624711263648</v>
       </c>
       <c r="I242">
         <f t="shared" si="203"/>
-        <v>567.40175000145973</v>
+        <v>553.27556535412043</v>
       </c>
       <c r="J242">
         <f t="shared" si="204"/>
-        <v>11394.623156996118</v>
+        <v>11619.078813585907</v>
       </c>
       <c r="K242">
         <f t="shared" si="205"/>
-        <v>945.61188024864055</v>
+        <v>988.85777136901345</v>
       </c>
       <c r="L242">
         <f t="shared" si="206"/>
-        <v>34.924637176438395</v>
+        <v>34.835171340338583</v>
       </c>
       <c r="M242" s="4">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1.163521306684958E-2</v>
       </c>
       <c r="N242" s="4">
         <f t="shared" si="208"/>
-        <v>0</v>
+        <v>-2.5211419346496056E-2</v>
       </c>
       <c r="O242" s="4">
         <f t="shared" si="209"/>
-        <v>0</v>
+        <v>1.9506881099851974E-2</v>
       </c>
       <c r="P242" s="4">
         <f t="shared" si="210"/>
-        <v>0</v>
+        <v>-2.5649693441587313E-3</v>
       </c>
       <c r="Q242" s="4">
         <f t="shared" si="211"/>
-        <v>3.1285796215659224E-2</v>
+        <v>3.1423058764466473E-2</v>
       </c>
       <c r="R242" s="4">
         <f t="shared" si="212"/>
-        <v>1.7332674156258963E-2</v>
+        <v>1.8442981444292614E-2</v>
       </c>
       <c r="S242" s="4">
         <f t="shared" si="213"/>
-        <v>2.5320052949081035E-2</v>
+        <v>2.5512901449569934E-2</v>
       </c>
       <c r="T242" s="4">
         <f t="shared" si="214"/>
-        <v>1.309135979282328E-2</v>
-      </c>
+        <v>1.3130761358161274E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="7">
+        <v>45649</v>
+      </c>
+      <c r="B243">
+        <v>94686.24</v>
+      </c>
+      <c r="C243">
+        <v>1200</v>
+      </c>
+      <c r="D243">
+        <v>2501153</v>
+      </c>
+      <c r="E243">
+        <v>74</v>
+      </c>
+      <c r="F243">
+        <v>212.38855889973902</v>
+      </c>
+      <c r="G243" s="2">
+        <f t="shared" ref="G243:G244" si="215">+F243/$U$1</f>
+        <v>2.1238855889973904</v>
+      </c>
+      <c r="H243" s="8">
+        <f t="shared" ref="H243:H244" si="216">+B243/G243</f>
+        <v>44581.610464572128</v>
+      </c>
+      <c r="I243">
+        <f t="shared" ref="I243:I244" si="217">+C243/G243</f>
+        <v>565.00218571871221</v>
+      </c>
+      <c r="J243">
+        <f t="shared" ref="J243:J244" si="218">+D243/F243</f>
+        <v>11776.307598474286</v>
+      </c>
+      <c r="K243">
+        <f t="shared" ref="K243:K244" si="219">+D243/C243/G243</f>
+        <v>981.35896653952364</v>
+      </c>
+      <c r="L243">
+        <f t="shared" ref="L243:L244" si="220">+E243/G243</f>
+        <v>34.841801452653918</v>
+      </c>
+      <c r="M243" s="4">
+        <f t="shared" ref="M243:M244" si="221">+LN(B243/B242)</f>
+        <v>-3.1905480189316861E-2</v>
+      </c>
+      <c r="N243" s="4">
+        <f t="shared" ref="N243:N244" si="222">+LN(C243/C242)</f>
+        <v>2.1053409197832263E-2</v>
+      </c>
+      <c r="O243" s="4">
+        <f t="shared" ref="O243:O244" si="223">+LN(D243/D242)</f>
+        <v>1.3521206897889699E-2</v>
+      </c>
+      <c r="P243" s="4">
+        <f t="shared" ref="P243:P244" si="224">+LN(E243/E242)</f>
+        <v>2.7030679986176091E-4</v>
+      </c>
+      <c r="Q243" s="4">
+        <f t="shared" ref="Q243:Q244" si="225">+_xlfn.STDEV.S(M224:M243)</f>
+        <v>3.0091280395288741E-2</v>
+      </c>
+      <c r="R243" s="4">
+        <f t="shared" ref="R243:R244" si="226">+_xlfn.STDEV.S(N224:N243)</f>
+        <v>1.8870525857489464E-2</v>
+      </c>
+      <c r="S243" s="4">
+        <f t="shared" ref="S243:S244" si="227">+_xlfn.STDEV.S(O224:O243)</f>
+        <v>2.556753689573937E-2</v>
+      </c>
+      <c r="T243" s="4">
+        <f t="shared" ref="T243:T244" si="228">+_xlfn.STDEV.S(P224:P243)</f>
+        <v>1.3053839904637392E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="7">
+        <v>45650</v>
+      </c>
+      <c r="B244">
+        <v>98676.09</v>
+      </c>
+      <c r="C244">
+        <v>1200</v>
+      </c>
+      <c r="D244">
+        <v>2551020</v>
+      </c>
+      <c r="E244">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="F244">
+        <v>212.40554998445103</v>
+      </c>
+      <c r="G244" s="2">
+        <f t="shared" si="215"/>
+        <v>2.1240554998445105</v>
+      </c>
+      <c r="H244" s="8">
+        <f t="shared" si="216"/>
+        <v>46456.455590366393</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="217"/>
+        <v>564.95698915957939</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="218"/>
+        <v>12010.138154048918</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="219"/>
+        <v>1000.844846170743</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="220"/>
+        <v>34.834306356597729</v>
+      </c>
+      <c r="M244" s="4">
+        <f t="shared" si="221"/>
+        <v>4.1273979167770099E-2</v>
+      </c>
+      <c r="N244" s="4">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+      <c r="O244" s="4">
+        <f t="shared" si="223"/>
+        <v>1.9741453637538094E-2</v>
+      </c>
+      <c r="P244" s="4">
+        <f t="shared" si="224"/>
+        <v>-1.3514426671023695E-4</v>
+      </c>
+      <c r="Q244" s="4">
+        <f t="shared" si="225"/>
+        <v>3.0996194170583257E-2</v>
+      </c>
+      <c r="R244" s="4">
+        <f t="shared" si="226"/>
+        <v>1.8870525857489464E-2</v>
+      </c>
+      <c r="S244" s="4">
+        <f t="shared" si="227"/>
+        <v>2.5675685216808745E-2</v>
+      </c>
+      <c r="T244" s="4">
+        <f t="shared" si="228"/>
+        <v>1.3011907811446699E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A245" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/datos.xlsx
+++ b/datos/datos.xlsx
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U245"/>
+  <dimension ref="A1:U246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B233" workbookViewId="0">
-      <selection activeCell="E245" sqref="E245"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A244" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19021,8 +19021,157 @@
         <v>1.3011907811446699E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A245" s="7"/>
+    <row r="245" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="7">
+        <v>45651</v>
+      </c>
+      <c r="B245">
+        <v>99299.199999999997</v>
+      </c>
+      <c r="C245">
+        <v>1200</v>
+      </c>
+      <c r="D245">
+        <v>2551020</v>
+      </c>
+      <c r="E245">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="F245">
+        <v>212.42254242844979</v>
+      </c>
+      <c r="G245" s="2">
+        <f t="shared" ref="G245:G246" si="229">+F245/$U$1</f>
+        <v>2.1242254242844978</v>
+      </c>
+      <c r="H245" s="8">
+        <f t="shared" ref="H245:H246" si="230">+B245/G245</f>
+        <v>46746.0745290001</v>
+      </c>
+      <c r="I245">
+        <f t="shared" ref="I245:I246" si="231">+C245/G245</f>
+        <v>564.91179621588219</v>
+      </c>
+      <c r="J245">
+        <f t="shared" ref="J245:J246" si="232">+D245/F245</f>
+        <v>12009.17741985533</v>
+      </c>
+      <c r="K245">
+        <f t="shared" ref="K245:K246" si="233">+D245/C245/G245</f>
+        <v>1000.7647849879442</v>
+      </c>
+      <c r="L245">
+        <f t="shared" ref="L245:L246" si="234">+E245/G245</f>
+        <v>34.83151983501093</v>
+      </c>
+      <c r="M245" s="4">
+        <f t="shared" ref="M245:M246" si="235">+LN(B245/B244)</f>
+        <v>6.2948467716832041E-3</v>
+      </c>
+      <c r="N245" s="4">
+        <f t="shared" ref="N245:N246" si="236">+LN(C245/C244)</f>
+        <v>0</v>
+      </c>
+      <c r="O245" s="4">
+        <f t="shared" ref="O245:O246" si="237">+LN(D245/D244)</f>
+        <v>0</v>
+      </c>
+      <c r="P245" s="4">
+        <f t="shared" ref="P245:P246" si="238">+LN(E245/E244)</f>
+        <v>0</v>
+      </c>
+      <c r="Q245" s="4">
+        <f t="shared" ref="Q245:Q246" si="239">+_xlfn.STDEV.S(M226:M245)</f>
+        <v>3.0140768373059474E-2</v>
+      </c>
+      <c r="R245" s="4">
+        <f t="shared" ref="R245:R246" si="240">+_xlfn.STDEV.S(N226:N245)</f>
+        <v>1.8878987433080655E-2</v>
+      </c>
+      <c r="S245" s="4">
+        <f t="shared" ref="S245:S246" si="241">+_xlfn.STDEV.S(O226:O245)</f>
+        <v>2.4916055399116614E-2</v>
+      </c>
+      <c r="T245" s="4">
+        <f t="shared" ref="T245:T246" si="242">+_xlfn.STDEV.S(P226:P245)</f>
+        <v>1.3002348360400328E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A246" s="7">
+        <v>45652</v>
+      </c>
+      <c r="B246">
+        <v>95861.29</v>
+      </c>
+      <c r="C246">
+        <v>1200</v>
+      </c>
+      <c r="D246">
+        <v>2597388.5</v>
+      </c>
+      <c r="E246">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F246">
+        <v>212.43953623184407</v>
+      </c>
+      <c r="G246" s="2">
+        <f t="shared" si="229"/>
+        <v>2.1243953623184408</v>
+      </c>
+      <c r="H246" s="8">
+        <f t="shared" si="230"/>
+        <v>45124.03467845203</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="231"/>
+        <v>564.86660688733105</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="232"/>
+        <v>12226.483573026455</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="233"/>
+        <v>1018.8736310855378</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="234"/>
+        <v>35.257090713217586</v>
+      </c>
+      <c r="M246" s="4">
+        <f t="shared" si="235"/>
+        <v>-3.5235263857997821E-2</v>
+      </c>
+      <c r="N246" s="4">
+        <f t="shared" si="236"/>
+        <v>0</v>
+      </c>
+      <c r="O246" s="4">
+        <f t="shared" si="237"/>
+        <v>1.8013237987962227E-2</v>
+      </c>
+      <c r="P246" s="4">
+        <f t="shared" si="238"/>
+        <v>1.2223941585714318E-2</v>
+      </c>
+      <c r="Q246" s="4">
+        <f t="shared" si="239"/>
+        <v>3.1212467771200885E-2</v>
+      </c>
+      <c r="R246" s="4">
+        <f t="shared" si="240"/>
+        <v>1.8694768687334017E-2</v>
+      </c>
+      <c r="S246" s="4">
+        <f t="shared" si="241"/>
+        <v>2.5016250903668276E-2</v>
+      </c>
+      <c r="T246" s="4">
+        <f t="shared" si="242"/>
+        <v>1.3194826794129885E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
